--- a/config/Load.xlsx
+++ b/config/Load.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="19720"/>
+    <workbookView windowHeight="19720"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>编号</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>TestData</t>
+  </si>
+  <si>
+    <t>DB sql 配置</t>
+  </si>
+  <si>
+    <t>DBSql</t>
   </si>
 </sst>
 </file>
@@ -1069,13 +1075,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.1071428571429" style="1" customWidth="1"/>
@@ -1203,6 +1209,26 @@
       </c>
       <c r="H5" s="4"/>
     </row>
+    <row r="6" ht="21" spans="1:8">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
